--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H2">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.74848166666666</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N2">
-        <v>194.245445</v>
+        <v>214.423775</v>
       </c>
       <c r="O2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q2">
-        <v>23.47887859369444</v>
+        <v>18.27324175522778</v>
       </c>
       <c r="R2">
-        <v>211.30990734325</v>
+        <v>164.45917579705</v>
       </c>
       <c r="S2">
-        <v>0.01852337296285018</v>
+        <v>0.01268629925047868</v>
       </c>
       <c r="T2">
-        <v>0.01852337296285018</v>
+        <v>0.01268629925047868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H3">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.258629666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>9.775889000000001</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q3">
-        <v>1.181633427627778</v>
+        <v>0.8331034329997778</v>
       </c>
       <c r="R3">
-        <v>10.63470084865</v>
+        <v>7.497930896998</v>
       </c>
       <c r="S3">
-        <v>0.0009322351831232104</v>
+        <v>0.0005783866704774823</v>
       </c>
       <c r="T3">
-        <v>0.0009322351831232106</v>
+        <v>0.0005783866704774822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H4">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.023043</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>0.069129</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q4">
-        <v>0.008355775849999999</v>
+        <v>0.02717016690955556</v>
       </c>
       <c r="R4">
-        <v>0.07520198265</v>
+        <v>0.244531502186</v>
       </c>
       <c r="S4">
-        <v>6.592186753974437E-06</v>
+        <v>1.886303879285478E-05</v>
       </c>
       <c r="T4">
-        <v>6.592186753974438E-06</v>
+        <v>1.886303879285478E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H5">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7928556666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N5">
-        <v>2.378567</v>
+        <v>4.42131</v>
       </c>
       <c r="O5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q5">
-        <v>0.2875026789944444</v>
+        <v>0.3767850207133334</v>
       </c>
       <c r="R5">
-        <v>2.58752411095</v>
+        <v>3.39106518642</v>
       </c>
       <c r="S5">
-        <v>0.0002268217082677417</v>
+        <v>0.0002615850865377868</v>
       </c>
       <c r="T5">
-        <v>0.0002268217082677418</v>
+        <v>0.0002615850865377867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3626166666666666</v>
+        <v>16.677026</v>
       </c>
       <c r="H6">
-        <v>1.08785</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I6">
-        <v>0.01970077495570336</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J6">
-        <v>0.01970077495570336</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04108233333333334</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N6">
-        <v>0.123247</v>
+        <v>214.423775</v>
       </c>
       <c r="O6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q6">
-        <v>0.01489713877222222</v>
+        <v>1191.983623564383</v>
       </c>
       <c r="R6">
-        <v>0.13407424895</v>
+        <v>10727.85261207945</v>
       </c>
       <c r="S6">
-        <v>1.175291470825685E-05</v>
+        <v>0.8275412295621545</v>
       </c>
       <c r="T6">
-        <v>1.175291470825685E-05</v>
+        <v>0.8275412295621545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J7">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.74848166666666</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N7">
-        <v>194.245445</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q7">
-        <v>1079.812112215523</v>
+        <v>54.34425167537132</v>
       </c>
       <c r="R7">
-        <v>9718.309009939709</v>
+        <v>489.0982650783419</v>
       </c>
       <c r="S7">
-        <v>0.8519045066208102</v>
+        <v>0.03772879757910774</v>
       </c>
       <c r="T7">
-        <v>0.8519045066208103</v>
+        <v>0.03772879757910774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J8">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.258629666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N8">
-        <v>9.775889000000001</v>
+        <v>0.318823</v>
       </c>
       <c r="O8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q8">
-        <v>54.34425167537133</v>
+        <v>1.772339820132667</v>
       </c>
       <c r="R8">
-        <v>489.098265078342</v>
+        <v>15.951058381194</v>
       </c>
       <c r="S8">
-        <v>0.04287423005118502</v>
+        <v>0.001230456731921145</v>
       </c>
       <c r="T8">
-        <v>0.04287423005118503</v>
+        <v>0.001230456731921145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +977,45 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J9">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023043</v>
+        <v>1.47377</v>
       </c>
       <c r="N9">
-        <v>0.069129</v>
+        <v>4.42131</v>
       </c>
       <c r="O9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q9">
-        <v>0.3842887101179999</v>
+        <v>24.57810060802</v>
       </c>
       <c r="R9">
-        <v>3.458598391062</v>
+        <v>221.20290547218</v>
       </c>
       <c r="S9">
-        <v>0.0003031798590602214</v>
+        <v>0.01706348241315801</v>
       </c>
       <c r="T9">
-        <v>0.0003031798590602214</v>
+        <v>0.01706348241315801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.677026</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H10">
-        <v>50.03107799999999</v>
+        <v>5.826112</v>
       </c>
       <c r="I10">
-        <v>0.9060541512793505</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J10">
-        <v>0.9060541512793506</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7928556666666667</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N10">
-        <v>2.378567</v>
+        <v>214.423775</v>
       </c>
       <c r="O10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q10">
-        <v>13.22247456724733</v>
+        <v>138.8063254014222</v>
       </c>
       <c r="R10">
-        <v>119.002271105226</v>
+        <v>1249.2569286128</v>
       </c>
       <c r="S10">
-        <v>0.01043170894740693</v>
+        <v>0.09636705985121535</v>
       </c>
       <c r="T10">
-        <v>0.01043170894740693</v>
+        <v>0.09636705985121535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.677026</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H11">
-        <v>50.03107799999999</v>
+        <v>5.826112</v>
       </c>
       <c r="I11">
-        <v>0.9060541512793505</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J11">
-        <v>0.9060541512793506</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.04108233333333334</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N11">
-        <v>0.123247</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q11">
-        <v>0.6851311411406666</v>
+        <v>6.328380468174222</v>
       </c>
       <c r="R11">
-        <v>6.166180270266</v>
+        <v>56.955424213568</v>
       </c>
       <c r="S11">
-        <v>0.0005405258008881239</v>
+        <v>0.004393513174375546</v>
       </c>
       <c r="T11">
-        <v>0.0005405258008881239</v>
+        <v>0.004393513174375546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H12">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I12">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J12">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>64.74848166666666</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N12">
-        <v>194.245445</v>
+        <v>0.318823</v>
       </c>
       <c r="O12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q12">
-        <v>88.48337575687111</v>
+        <v>0.2063887229084445</v>
       </c>
       <c r="R12">
-        <v>796.35038181184</v>
+        <v>1.857498506176</v>
       </c>
       <c r="S12">
-        <v>0.069807872791536</v>
+        <v>0.0001432865134612243</v>
       </c>
       <c r="T12">
-        <v>0.06980787279153601</v>
+        <v>0.0001432865134612243</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H13">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I13">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J13">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,214 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.258629666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N13">
-        <v>9.775889000000001</v>
+        <v>4.42131</v>
       </c>
       <c r="O13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q13">
-        <v>4.453147715996446</v>
+        <v>2.862116360746667</v>
       </c>
       <c r="R13">
-        <v>40.07832944396801</v>
+        <v>25.75904724672</v>
       </c>
       <c r="S13">
-        <v>0.003513256209102747</v>
+        <v>0.001987040128319619</v>
       </c>
       <c r="T13">
-        <v>0.003513256209102748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.366570666666667</v>
-      </c>
-      <c r="H14">
-        <v>4.099712</v>
-      </c>
-      <c r="I14">
-        <v>0.07424507376494605</v>
-      </c>
-      <c r="J14">
-        <v>0.07424507376494606</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.023043</v>
-      </c>
-      <c r="N14">
-        <v>0.069129</v>
-      </c>
-      <c r="O14">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="P14">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="Q14">
-        <v>0.031489887872</v>
-      </c>
-      <c r="R14">
-        <v>0.283408990848</v>
-      </c>
-      <c r="S14">
-        <v>2.484356036357039E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.48435603635704E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.366570666666667</v>
-      </c>
-      <c r="H15">
-        <v>4.099712</v>
-      </c>
-      <c r="I15">
-        <v>0.07424507376494605</v>
-      </c>
-      <c r="J15">
-        <v>0.07424507376494606</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.7928556666666667</v>
-      </c>
-      <c r="N15">
-        <v>2.378567</v>
-      </c>
-      <c r="O15">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="P15">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="Q15">
-        <v>1.083493296967111</v>
-      </c>
-      <c r="R15">
-        <v>9.751439672704002</v>
-      </c>
-      <c r="S15">
-        <v>0.0008548087321282898</v>
-      </c>
-      <c r="T15">
-        <v>0.0008548087321282899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.366570666666667</v>
-      </c>
-      <c r="H16">
-        <v>4.099712</v>
-      </c>
-      <c r="I16">
-        <v>0.07424507376494605</v>
-      </c>
-      <c r="J16">
-        <v>0.07424507376494606</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.04108233333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.123247</v>
-      </c>
-      <c r="O16">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="P16">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="Q16">
-        <v>0.05614191165155557</v>
-      </c>
-      <c r="R16">
-        <v>0.5052772048640001</v>
-      </c>
-      <c r="S16">
-        <v>4.429247181543145E-05</v>
-      </c>
-      <c r="T16">
-        <v>4.429247181543145E-05</v>
+        <v>0.001987040128319619</v>
       </c>
     </row>
   </sheetData>
